--- a/biology/Botanique/Lathyrus_brachyodon/Lathyrus_brachyodon.xlsx
+++ b/biology/Botanique/Lathyrus_brachyodon/Lathyrus_brachyodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lathyrus brachyodon est une espèce de plantes de la famille des Fabaceae[1] endémique de la Tunisie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lathyrus brachyodon est une espèce de plantes de la famille des Fabaceae endémique de la Tunisie.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Cosson identifie cette espèce en 1885 comme étant Lathyrus inconspicuus L.[2]. Svante Samuel Murbeck reprend les planches en herbier et s'aperçoit de l'erreur de son confrère et lui donne son nom en 1897[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Cosson identifie cette espèce en 1885 comme étant Lathyrus inconspicuus L.. Svante Samuel Murbeck reprend les planches en herbier et s'aperçoit de l'erreur de son confrère et lui donne son nom en 1897.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lathyrus brachyodon est une espèce endémique de Tunisie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lathyrus brachyodon est une espèce endémique de Tunisie.
 </t>
         </is>
       </c>
